--- a/Supplies/Other/SoCal/socal water demand analysis.xlsx
+++ b/Supplies/Other/SoCal/socal water demand analysis.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvar/Library/CloudStorage/Dropbox/@UCLA/02_Projects/02_NIDIS/SoCal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Supplies\Other\SoCal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688897F0-E9D7-4942-8122-4A3B7D37675D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39017FA1-22F2-4379-B292-B12186E2FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="socal_water_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -59,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1954,7 +1968,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2706,9 +2720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2746,7 +2760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2852,7 +2866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2994,7 +3008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3004,16 +3018,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH47" sqref="AH47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +3065,7 @@
         <v>1871388</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1976</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1977</v>
       </c>
@@ -3239,7 +3253,7 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1978</v>
       </c>
@@ -3333,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1979</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1980</v>
       </c>
@@ -3521,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1981</v>
       </c>
@@ -3609,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1982</v>
       </c>
@@ -3697,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1983</v>
       </c>
@@ -3785,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1984</v>
       </c>
@@ -3873,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1985</v>
       </c>
@@ -3961,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1986</v>
       </c>
@@ -4049,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1987</v>
       </c>
@@ -4137,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1988</v>
       </c>
@@ -4225,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1989</v>
       </c>
@@ -4313,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1990</v>
       </c>
@@ -4401,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1991</v>
       </c>
@@ -4489,7 +4503,7 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1992</v>
       </c>
@@ -4577,7 +4591,7 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1993</v>
       </c>
@@ -4665,7 +4679,7 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1994</v>
       </c>
@@ -4753,7 +4767,7 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1995</v>
       </c>
@@ -4841,7 +4855,7 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1996</v>
       </c>
@@ -4929,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1997</v>
       </c>
@@ -5017,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1998</v>
       </c>
@@ -5105,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1999</v>
       </c>
@@ -5193,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2000</v>
       </c>
@@ -5281,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2001</v>
       </c>
@@ -5369,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -5457,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2003</v>
       </c>
@@ -5545,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2004</v>
       </c>
@@ -5633,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -5721,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2006</v>
       </c>
@@ -5809,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2007</v>
       </c>
@@ -5897,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2008</v>
       </c>
@@ -5985,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -6073,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2010</v>
       </c>
@@ -6161,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -6249,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2012</v>
       </c>
@@ -6337,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -6425,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -6601,11 +6615,3614 @@
         <v>343690</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Z42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BC4301-D3B0-43AC-8F29-44D28E9F4641}">
+  <dimension ref="A1:AC41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1871388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1976</v>
+      </c>
+      <c r="B2">
+        <v>3209000</v>
+      </c>
+      <c r="C2">
+        <v>12285700</v>
+      </c>
+      <c r="D2">
+        <v>13.21</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>59.8</v>
+      </c>
+      <c r="J2">
+        <v>0.76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.14287820000000001</v>
+      </c>
+      <c r="P2">
+        <f>+A2</f>
+        <v>1976</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>+N1</f>
+        <v>1871388</v>
+      </c>
+      <c r="R2">
+        <f>+$N$2*C2</f>
+        <v>1755358.7017400002</v>
+      </c>
+      <c r="S2">
+        <f>+R2+T2</f>
+        <v>1500577.8280400001</v>
+      </c>
+      <c r="T2">
+        <f>+$N$3*D2</f>
+        <v>-254780.87370000003</v>
+      </c>
+      <c r="U2">
+        <f>+$N$4*E2</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>+$N$5*F2</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>+$N$6*G2</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>+U2+V2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>+P2</f>
+        <v>1976</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>+Q2+R2+T2+X2+W2</f>
+        <v>3371965.8280400005</v>
+      </c>
+      <c r="AA2">
+        <f>-T2</f>
+        <v>254780.87370000003</v>
+      </c>
+      <c r="AB2">
+        <f>-U2-V2</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>-W2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1977</v>
+      </c>
+      <c r="B3">
+        <v>3131000</v>
+      </c>
+      <c r="C3">
+        <v>12497200</v>
+      </c>
+      <c r="D3">
+        <v>13.81</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>59.9</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-19286.97</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P41" si="0">+A3</f>
+        <v>1977</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>+Q2</f>
+        <v>1871388</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R41" si="1">+$N$2*C3</f>
+        <v>1785577.4410400002</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S41" si="2">+R3+T3</f>
+        <v>1519224.38534</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T41" si="3">+$N$3*D3</f>
+        <v>-266353.05570000003</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U41" si="4">+$N$4*E3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V41" si="5">+$N$5*F3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W41" si="6">+$N$6*G3</f>
+        <v>-343690</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X41" si="7">+U3+V3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y41" si="8">+P3</f>
+        <v>1977</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z41" si="9">+Q3+R3+T3+X3+W3</f>
+        <v>3046922.38534</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA41" si="10">-T3</f>
+        <v>266353.05570000003</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB41" si="11">-U3-V3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC41" si="12">-W3</f>
+        <v>343690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1978</v>
+      </c>
+      <c r="B4">
+        <v>3011000</v>
+      </c>
+      <c r="C4">
+        <v>12744700</v>
+      </c>
+      <c r="D4">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>59.6</v>
+      </c>
+      <c r="J4">
+        <v>0.74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-43792.21</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q41" si="13">+Q3</f>
+        <v>1871388</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>1820939.7955400001</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>1098642.7690399999</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>-722297.02650000015</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="8"/>
+        <v>1978</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="9"/>
+        <v>2970030.7690400002</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="10"/>
+        <v>722297.02650000015</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1979</v>
+      </c>
+      <c r="B5">
+        <v>3227000</v>
+      </c>
+      <c r="C5">
+        <v>13004900</v>
+      </c>
+      <c r="D5">
+        <v>19.62</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>59.4</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-60718.04</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1858116.7031800002</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>1479706.3517800001</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>-378410.35140000004</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="8"/>
+        <v>1979</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="9"/>
+        <v>3351094.3517800001</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="10"/>
+        <v>378410.35140000004</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1980</v>
+      </c>
+      <c r="B6">
+        <v>3317000</v>
+      </c>
+      <c r="C6">
+        <v>13264200</v>
+      </c>
+      <c r="D6">
+        <v>27.67</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>60.1</v>
+      </c>
+      <c r="J6">
+        <v>0.75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-343690</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>1895165.0204400001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>1361494.56054</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>-533670.45990000002</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="8"/>
+        <v>1980</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="9"/>
+        <v>3232882.56054</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="10"/>
+        <v>533670.45990000002</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1981</v>
+      </c>
+      <c r="B7">
+        <v>3583000</v>
+      </c>
+      <c r="C7">
+        <v>13571800</v>
+      </c>
+      <c r="D7">
+        <v>14.39</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>61.1</v>
+      </c>
+      <c r="J7">
+        <v>0.77</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>1939114.3547600002</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1661574.8564600002</v>
+      </c>
+      <c r="T7">
+        <f>+$N$3*D7</f>
+        <v>-277539.49830000004</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>1981</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="9"/>
+        <v>3532962.8564600004</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="10"/>
+        <v>277539.49830000004</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1982</v>
+      </c>
+      <c r="B8">
+        <v>3298000</v>
+      </c>
+      <c r="C8">
+        <v>13868300</v>
+      </c>
+      <c r="D8">
+        <v>23.65</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>58.8</v>
+      </c>
+      <c r="J8">
+        <v>0.74</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>1981477.7410600001</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>1525340.9005600002</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>-456136.84049999999</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="8"/>
+        <v>1982</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="9"/>
+        <v>3396728.90056</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="10"/>
+        <v>456136.84049999999</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1983</v>
+      </c>
+      <c r="B9">
+        <v>3163000</v>
+      </c>
+      <c r="C9">
+        <v>14179900</v>
+      </c>
+      <c r="D9">
+        <v>36.28</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>60.3</v>
+      </c>
+      <c r="J9">
+        <v>0.72</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>2025998.5881800002</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>1326267.3165800001</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>-699731.27160000009</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="8"/>
+        <v>1983</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="9"/>
+        <v>3197655.3165799999</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="10"/>
+        <v>699731.27160000009</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1984</v>
+      </c>
+      <c r="B10">
+        <v>3785000</v>
+      </c>
+      <c r="C10">
+        <v>14483000</v>
+      </c>
+      <c r="D10">
+        <v>10.98</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>61.1</v>
+      </c>
+      <c r="J10">
+        <v>0.76</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>2069304.9706000001</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>1857534.04</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>-211770.93060000002</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="8"/>
+        <v>1984</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="9"/>
+        <v>3728922.04</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="10"/>
+        <v>211770.93060000002</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1985</v>
+      </c>
+      <c r="B11">
+        <v>3776000</v>
+      </c>
+      <c r="C11">
+        <v>14795200</v>
+      </c>
+      <c r="D11">
+        <v>11.13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>59.5</v>
+      </c>
+      <c r="J11">
+        <v>0.76</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>2113911.54464</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>1899247.5685399999</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>-214663.97610000003</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="8"/>
+        <v>1985</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="9"/>
+        <v>3770635.5685399999</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="10"/>
+        <v>214663.97610000003</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1986</v>
+      </c>
+      <c r="B12">
+        <v>3789000</v>
+      </c>
+      <c r="C12">
+        <v>15189600</v>
+      </c>
+      <c r="D12">
+        <v>17.64</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>60.5</v>
+      </c>
+      <c r="J12">
+        <v>0.75</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>2170262.7067200001</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>1830040.5559200002</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>-340222.1508</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="8"/>
+        <v>1986</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="9"/>
+        <v>3701428.5559200002</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="10"/>
+        <v>340222.1508</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1987</v>
+      </c>
+      <c r="B13">
+        <v>3831000</v>
+      </c>
+      <c r="C13">
+        <v>15613100</v>
+      </c>
+      <c r="D13">
+        <v>15.63</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>59.6</v>
+      </c>
+      <c r="J13">
+        <v>0.75</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>2230771.6244200002</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>1929316.2833200002</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>-301455.34110000002</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="8"/>
+        <v>1987</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="9"/>
+        <v>3800704.2833200004</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="10"/>
+        <v>301455.34110000002</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1988</v>
+      </c>
+      <c r="B14">
+        <v>4047000</v>
+      </c>
+      <c r="C14">
+        <v>16027400</v>
+      </c>
+      <c r="D14">
+        <v>14.39</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>60.3</v>
+      </c>
+      <c r="J14">
+        <v>0.76</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>2289966.06268</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>2012426.5643799999</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>-277539.49830000004</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="8"/>
+        <v>1988</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="9"/>
+        <v>3883814.5643799999</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="10"/>
+        <v>277539.49830000004</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1989</v>
+      </c>
+      <c r="B15">
+        <v>4234000</v>
+      </c>
+      <c r="C15">
+        <v>16460900</v>
+      </c>
+      <c r="D15">
+        <v>6.07</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>60.4</v>
+      </c>
+      <c r="J15">
+        <v>0.76</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>2351903.7623800002</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2234831.8544800002</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>-117071.90790000001</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>1989</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="9"/>
+        <v>4106219.8544800002</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="10"/>
+        <v>117071.90790000001</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1990</v>
+      </c>
+      <c r="B16">
+        <v>4217000</v>
+      </c>
+      <c r="C16">
+        <v>16918800</v>
+      </c>
+      <c r="D16">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>60.4</v>
+      </c>
+      <c r="J16">
+        <v>0.75</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>2417327.6901600002</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2239501.8267600001</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>-177825.86340000003</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="8"/>
+        <v>1990</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="9"/>
+        <v>4110889.8267600005</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="10"/>
+        <v>177825.86340000003</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1991</v>
+      </c>
+      <c r="B17">
+        <v>3490000</v>
+      </c>
+      <c r="C17">
+        <v>17231944</v>
+      </c>
+      <c r="D17">
+        <v>20.97</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>59.9</v>
+      </c>
+      <c r="J17">
+        <v>0.7</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>2462069.1412208001</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>2057621.3803208</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>-404447.76089999999</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>-343690</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="8"/>
+        <v>1991</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="9"/>
+        <v>3585319.3803208005</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="10"/>
+        <v>404447.76089999999</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="12"/>
+        <v>343690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1992</v>
+      </c>
+      <c r="B18">
+        <v>3586000</v>
+      </c>
+      <c r="C18">
+        <v>17539270</v>
+      </c>
+      <c r="D18">
+        <v>24.51</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>61.4</v>
+      </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>2505979.3269140003</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>2033255.6922140003</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>-472723.63470000005</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="6"/>
+        <v>-343690</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="8"/>
+        <v>1992</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="9"/>
+        <v>3560953.692214</v>
+      </c>
+      <c r="AA18">
+        <f>-T18</f>
+        <v>472723.63470000005</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="12"/>
+        <v>343690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1993</v>
+      </c>
+      <c r="B19">
+        <v>3505000</v>
+      </c>
+      <c r="C19">
+        <v>17746256</v>
+      </c>
+      <c r="D19">
+        <v>29.28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>60.5</v>
+      </c>
+      <c r="J19">
+        <v>0.69</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>2535553.1140192002</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>1970830.6324192001</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>-564722.48160000006</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>-343690</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="8"/>
+        <v>1993</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="9"/>
+        <v>3498528.6324192001</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="10"/>
+        <v>564722.48160000006</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="12"/>
+        <v>343690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1994</v>
+      </c>
+      <c r="B20">
+        <v>3768000</v>
+      </c>
+      <c r="C20">
+        <v>17862237</v>
+      </c>
+      <c r="D20">
+        <v>14.44</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>60.1</v>
+      </c>
+      <c r="J20">
+        <v>0.71</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>2552124.2705334001</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>2273620.4237334002</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>-278503.8468</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="6"/>
+        <v>-343690</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="8"/>
+        <v>1994</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="9"/>
+        <v>3801318.4237333997</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="10"/>
+        <v>278503.8468</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="12"/>
+        <v>343690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1995</v>
+      </c>
+      <c r="B21">
+        <v>3438000</v>
+      </c>
+      <c r="C21">
+        <v>17949643</v>
+      </c>
+      <c r="D21">
+        <v>30.66</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>61</v>
+      </c>
+      <c r="J21">
+        <v>0.68</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>2564612.6824826002</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>1973274.1822826001</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>-591338.50020000001</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="6"/>
+        <v>-343690</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="8"/>
+        <v>1995</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="9"/>
+        <v>3500972.1822826001</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="10"/>
+        <v>591338.50020000001</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="12"/>
+        <v>343690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1996</v>
+      </c>
+      <c r="B22">
+        <v>3892000</v>
+      </c>
+      <c r="C22">
+        <v>18041927</v>
+      </c>
+      <c r="D22">
+        <v>20.7</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>61.6</v>
+      </c>
+      <c r="J22">
+        <v>0.71</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>2577798.0542914001</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>2178557.7752914</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>-399240.27900000004</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="8"/>
+        <v>1996</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="9"/>
+        <v>4049945.7752914</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="10"/>
+        <v>399240.27900000004</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1997</v>
+      </c>
+      <c r="B23">
+        <v>4044000</v>
+      </c>
+      <c r="C23">
+        <v>18223888</v>
+      </c>
+      <c r="D23">
+        <v>15.24</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>61.7</v>
+      </c>
+      <c r="J23">
+        <v>0.72</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>2603796.3144416003</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>2309862.8916416005</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>-293933.4228</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="8"/>
+        <v>1997</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="9"/>
+        <v>4181250.891641601</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="10"/>
+        <v>293933.4228</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1998</v>
+      </c>
+      <c r="B24">
+        <v>3655000</v>
+      </c>
+      <c r="C24">
+        <v>18468327</v>
+      </c>
+      <c r="D24">
+        <v>32.03</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>59.1</v>
+      </c>
+      <c r="J24">
+        <v>0.69</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>2638721.3187714</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>2020959.6696714</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>-617761.64910000004</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="8"/>
+        <v>1998</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="9"/>
+        <v>3892347.6696713995</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="10"/>
+        <v>617761.64910000004</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1999</v>
+      </c>
+      <c r="B25">
+        <v>4060000</v>
+      </c>
+      <c r="C25">
+        <v>18750968</v>
+      </c>
+      <c r="D25">
+        <v>9.41</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>59.8</v>
+      </c>
+      <c r="J25">
+        <v>0.72</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>2679104.5560976001</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>2497614.1683976003</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>-181490.38770000002</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="8"/>
+        <v>1999</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="9"/>
+        <v>4369002.1683976008</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="10"/>
+        <v>181490.38770000002</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26">
+        <v>4714000</v>
+      </c>
+      <c r="C26">
+        <v>19097025</v>
+      </c>
+      <c r="D26">
+        <v>14.87</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>60.8</v>
+      </c>
+      <c r="J26">
+        <v>0.75</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>2728548.5573550002</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>2441751.3134550001</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>-286797.2439</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="9"/>
+        <v>4313139.3134549996</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="10"/>
+        <v>286797.2439</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2001</v>
+      </c>
+      <c r="B27">
+        <v>4340000</v>
+      </c>
+      <c r="C27">
+        <v>19405312</v>
+      </c>
+      <c r="D27">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>60.2</v>
+      </c>
+      <c r="J27">
+        <v>0.72</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>2772596.0489984001</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>2386663.7792984</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>-385932.26970000006</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>-43792.21</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="7"/>
+        <v>-43792.21</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="8"/>
+        <v>2001</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="9"/>
+        <v>4214259.5692984005</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="10"/>
+        <v>385932.26970000006</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="11"/>
+        <v>43792.21</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28">
+        <v>4498000</v>
+      </c>
+      <c r="C28">
+        <v>19683672</v>
+      </c>
+      <c r="D28">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>60.2</v>
+      </c>
+      <c r="J28">
+        <v>0.73</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>2812367.6247504004</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>2642835.1584504005</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>-169532.4663</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>-87584.42</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="7"/>
+        <v>-87584.42</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>2002</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="9"/>
+        <v>4426638.7384503996</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="10"/>
+        <v>169532.4663</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="11"/>
+        <v>87584.42</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29">
+        <v>4148000</v>
+      </c>
+      <c r="C29">
+        <v>19951478</v>
+      </c>
+      <c r="D29">
+        <v>15.53</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>61.3</v>
+      </c>
+      <c r="J29">
+        <v>0.7</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>2850631.2639796003</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>2551104.6198796001</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>-299526.64410000003</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>-131376.63</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="7"/>
+        <v>-131376.63</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="8"/>
+        <v>2003</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="9"/>
+        <v>4291115.9898796007</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="10"/>
+        <v>299526.64410000003</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="11"/>
+        <v>131376.63</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30">
+        <v>4373000</v>
+      </c>
+      <c r="C30">
+        <v>20190543</v>
+      </c>
+      <c r="D30">
+        <v>18.47</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>60.6</v>
+      </c>
+      <c r="J30">
+        <v>0.72</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>2884788.4408626002</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>2528558.1049626004</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>-356230.33590000001</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>-175168.84</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="7"/>
+        <v>-175168.84</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="8"/>
+        <v>2004</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="9"/>
+        <v>4224777.2649625996</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="10"/>
+        <v>356230.33590000001</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="11"/>
+        <v>175168.84</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31">
+        <v>4190000</v>
+      </c>
+      <c r="C31">
+        <v>20352863</v>
+      </c>
+      <c r="D31">
+        <v>26.1</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>60.7</v>
+      </c>
+      <c r="J31">
+        <v>0.7</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>2907980.4302866003</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>2404590.5132866004</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>-503389.91700000007</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>-218961.05</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="7"/>
+        <v>-218961.05</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="8"/>
+        <v>2005</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="9"/>
+        <v>4057017.4632866001</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="10"/>
+        <v>503389.91700000007</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="11"/>
+        <v>218961.05</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32">
+        <v>4297000</v>
+      </c>
+      <c r="C32">
+        <v>20466112</v>
+      </c>
+      <c r="D32">
+        <v>14.82</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>61</v>
+      </c>
+      <c r="J32">
+        <v>0.71</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>2924161.2435584003</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>2638328.3481584005</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>-285832.89540000004</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>-262753.26</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="7"/>
+        <v>-262753.26</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="8"/>
+        <v>2006</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="9"/>
+        <v>4246963.0881584007</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="10"/>
+        <v>285832.89540000004</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="11"/>
+        <v>262753.26</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2007</v>
+      </c>
+      <c r="B33">
+        <v>4326000</v>
+      </c>
+      <c r="C33">
+        <v>20583108</v>
+      </c>
+      <c r="D33">
+        <v>7.94</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>60.9</v>
+      </c>
+      <c r="J33">
+        <v>0.71</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>2940877.4214456002</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>2787738.8796456</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>-153138.54180000001</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>-306545.46999999997</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="7"/>
+        <v>-306545.46999999997</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="8"/>
+        <v>2007</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="9"/>
+        <v>4352581.4096456012</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="10"/>
+        <v>153138.54180000001</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="11"/>
+        <v>306545.46999999997</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34">
+        <v>3922000</v>
+      </c>
+      <c r="C34">
+        <v>20713789</v>
+      </c>
+      <c r="D34">
+        <v>17.54</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>61.5</v>
+      </c>
+      <c r="J34">
+        <v>0.67</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>2959548.8874998004</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>2621255.4336998006</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>-338293.45380000002</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>-350337.68</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>-60718.04</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="7"/>
+        <v>-411055.72</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="8"/>
+        <v>2008</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="9"/>
+        <v>4081587.7136998</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>338293.45380000002</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="11"/>
+        <v>411055.72</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2009</v>
+      </c>
+      <c r="B35">
+        <v>3946000</v>
+      </c>
+      <c r="C35">
+        <v>20831679</v>
+      </c>
+      <c r="D35">
+        <v>11.47</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>61.1</v>
+      </c>
+      <c r="J35">
+        <v>0.67</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>2976392.7984978002</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>2755171.2525978005</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>-221221.54590000003</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>-394129.89</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>-121436.08</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="7"/>
+        <v>-515565.97000000003</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="8"/>
+        <v>2009</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="9"/>
+        <v>4110993.2825977993</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="10"/>
+        <v>221221.54590000003</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="11"/>
+        <v>515565.97000000003</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36">
+        <v>3946000</v>
+      </c>
+      <c r="C36">
+        <v>20957496</v>
+      </c>
+      <c r="D36">
+        <v>29.32</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>59.7</v>
+      </c>
+      <c r="J36">
+        <v>0.67</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>2994369.3049872001</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>2428875.3445872003</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>-565493.96039999998</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>-437922.1</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="5"/>
+        <v>-182154.12</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="7"/>
+        <v>-620076.22</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="8"/>
+        <v>2010</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="9"/>
+        <v>3680187.1245871997</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>565493.96039999998</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="11"/>
+        <v>620076.22</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2011</v>
+      </c>
+      <c r="B37">
+        <v>3859000</v>
+      </c>
+      <c r="C37">
+        <v>21239306</v>
+      </c>
+      <c r="D37">
+        <v>14.83</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>59.8</v>
+      </c>
+      <c r="J37">
+        <v>0.66</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>3034633.8105292004</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>2748608.0454292004</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>-286025.76510000002</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>-481714.31</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="5"/>
+        <v>-242872.16</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="7"/>
+        <v>-724586.47</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="8"/>
+        <v>2011</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="9"/>
+        <v>3895409.5754292002</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="10"/>
+        <v>286025.76510000002</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="11"/>
+        <v>724586.47</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38">
+        <v>3741000</v>
+      </c>
+      <c r="C38">
+        <v>21448014</v>
+      </c>
+      <c r="D38">
+        <v>11.52</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>61.7</v>
+      </c>
+      <c r="J38">
+        <v>0.65</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>3064453.6338948002</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>2842267.7394948001</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>-222185.89440000002</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>-525506.52</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="5"/>
+        <v>-303590.2</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="7"/>
+        <v>-829096.72</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="8"/>
+        <v>2012</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="9"/>
+        <v>3884559.0194948008</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="10"/>
+        <v>222185.89440000002</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="11"/>
+        <v>829096.72</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2013</v>
+      </c>
+      <c r="B39">
+        <v>3889000</v>
+      </c>
+      <c r="C39">
+        <v>21607090</v>
+      </c>
+      <c r="D39">
+        <v>6.04</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>61.5</v>
+      </c>
+      <c r="J39">
+        <v>0.66</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>3087182.1264380002</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>2970688.8276380002</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>-116493.2988</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>-569298.73</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="5"/>
+        <v>-364308.24</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="7"/>
+        <v>-933606.97</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="8"/>
+        <v>2013</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="9"/>
+        <v>3908469.8576380005</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="10"/>
+        <v>116493.2988</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="11"/>
+        <v>933606.97</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40">
+        <v>3723000</v>
+      </c>
+      <c r="C40">
+        <v>21776681</v>
+      </c>
+      <c r="D40">
+        <v>11.97</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>63.8</v>
+      </c>
+      <c r="J40">
+        <v>0.64</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>3111412.9832542003</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>2880547.9523542002</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>-230865.03090000001</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>-613090.93999999994</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="5"/>
+        <v>-425026.28</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="7"/>
+        <v>-1038117.22</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="8"/>
+        <v>2014</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="9"/>
+        <v>3713818.7323542004</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="10"/>
+        <v>230865.03090000001</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="11"/>
+        <v>1038117.22</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41">
+        <v>3442000</v>
+      </c>
+      <c r="C41">
+        <v>21925691</v>
+      </c>
+      <c r="D41">
+        <v>7.87</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>63.2</v>
+      </c>
+      <c r="J41">
+        <v>0.61</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="13"/>
+        <v>1871388</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>3132703.2638362003</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>2980914.8099362003</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>-151788.45390000002</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>-656883.15</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="5"/>
+        <v>-485744.32</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="6"/>
+        <v>-343690</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="7"/>
+        <v>-1142627.47</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="8"/>
+        <v>2015</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="9"/>
+        <v>3365985.3399362005</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="10"/>
+        <v>151788.45390000002</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="11"/>
+        <v>1142627.47</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="12"/>
+        <v>343690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>